--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="899">
   <si>
     <t>anchor score</t>
   </si>
@@ -259,523 +259,523 @@
     <t>delay</t>
   </si>
   <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>crush</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>crush</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>love</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>better</t>
@@ -3079,7 +3079,7 @@
         <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4">
         <v>0.896551724137931</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K5">
         <v>0.889763779527559</v>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K7">
         <v>0.8723404255319149</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>0.8141025641025641</v>
@@ -3558,7 +3558,7 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11">
         <v>0.7824933687002652</v>
@@ -3658,28 +3658,28 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="K13">
-        <v>0.7631578947368421</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
         <v>174</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3708,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14">
         <v>0.7102473498233216</v>
@@ -3758,28 +3758,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="K15">
-        <v>0.6809815950920245</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3808,28 +3808,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3858,28 +3858,28 @@
         <v>56</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="K17">
-        <v>0.6716417910447762</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <v>0.6470588235294118</v>
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K19">
         <v>0.5964912280701754</v>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K23">
         <v>0.4968553459119497</v>
@@ -4208,7 +4208,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K24">
         <v>0.4810126582278481</v>
@@ -4258,7 +4258,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K25">
         <v>0.4761904761904762</v>
@@ -4308,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K26">
         <v>0.4711538461538461</v>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28">
         <v>0.4594594594594595</v>
@@ -4508,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K30">
         <v>0.4516129032258064</v>
@@ -4558,7 +4558,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K31">
         <v>0.4375</v>
@@ -4658,7 +4658,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K33">
         <v>0.4210526315789473</v>
@@ -4758,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K35">
         <v>0.4070247933884297</v>
@@ -4808,7 +4808,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K36">
         <v>0.4042553191489361</v>
@@ -5058,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K41">
         <v>0.3666666666666666</v>
@@ -5108,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K42">
         <v>0.3636363636363636</v>
@@ -5208,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K44">
         <v>0.356687898089172</v>
@@ -5308,7 +5308,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K46">
         <v>0.3478260869565217</v>
@@ -5558,7 +5558,7 @@
         <v>22</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K51">
         <v>0.3377049180327869</v>
@@ -5608,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K52">
         <v>0.3359375</v>
@@ -5658,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K53">
         <v>0.3333333333333333</v>
@@ -6358,7 +6358,7 @@
         <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K67">
         <v>0.3234421364985163</v>
@@ -6408,7 +6408,7 @@
         <v>10</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K68">
         <v>0.3203125</v>
@@ -6558,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K71">
         <v>0.3185185185185185</v>
@@ -6758,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K75">
         <v>0.3145539906103286</v>
@@ -6787,25 +6787,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1692307692307692</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>289</v>
@@ -6858,7 +6858,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K77">
         <v>0.3117913832199546</v>
@@ -6887,13 +6887,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>290</v>
@@ -6937,13 +6937,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>291</v>
@@ -6987,25 +6987,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>292</v>
@@ -7040,22 +7040,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E81">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F81">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>293</v>
@@ -7093,16 +7093,16 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>6</v>
@@ -7137,25 +7137,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1428571428571428</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>295</v>
@@ -7187,25 +7187,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1296296296296296</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="E84">
-        <v>0.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F84">
-        <v>0.88</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>296</v>
@@ -7237,28 +7237,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
       <c r="C85">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K85">
         <v>0.2909090909090909</v>
@@ -7290,10 +7290,10 @@
         <v>0.125</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>297</v>
@@ -7408,7 +7408,7 @@
         <v>7</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K88">
         <v>0.2762923351158645</v>
@@ -7437,25 +7437,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>299</v>
@@ -7487,25 +7487,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1212121212121212</v>
+        <v>0.12</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>300</v>
@@ -7537,28 +7537,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.12</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K91">
         <v>0.2682926829268293</v>
@@ -7587,28 +7587,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1186440677966102</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C92">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="E92">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F92">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K92">
         <v>0.2676056338028169</v>
@@ -7637,13 +7637,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>301</v>
@@ -7687,25 +7687,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>302</v>
@@ -7737,28 +7737,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K95">
         <v>0.2606741573033708</v>
@@ -7793,22 +7793,22 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K96">
         <v>0.2592592592592592</v>
@@ -7837,25 +7837,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>303</v>
@@ -7887,25 +7887,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>304</v>
@@ -7940,10 +7940,10 @@
         <v>0.1</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7955,10 +7955,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K99">
         <v>0.2571428571428571</v>
@@ -7990,22 +7990,22 @@
         <v>0.1</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>305</v>
@@ -8037,7 +8037,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8055,10 +8055,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K101">
         <v>0.25</v>
@@ -8087,7 +8087,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>306</v>
@@ -8140,25 +8140,25 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K103">
         <v>0.25</v>
@@ -8187,13 +8187,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>307</v>
@@ -8237,25 +8237,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>308</v>
@@ -8287,13 +8287,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>309</v>
@@ -8393,16 +8393,16 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>11</v>
@@ -8487,25 +8487,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>313</v>
@@ -8537,7 +8537,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>314</v>
@@ -8587,25 +8587,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E112">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F112">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>315</v>
@@ -8637,13 +8637,13 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8655,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K113">
         <v>0.2446324007807417</v>
@@ -8687,25 +8687,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F114">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>316</v>
@@ -8737,28 +8737,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K115">
         <v>0.2397260273972603</v>
@@ -8808,7 +8808,7 @@
         <v>13</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K116">
         <v>0.2394366197183098</v>
@@ -8840,22 +8840,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F117">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>317</v>
@@ -8887,28 +8887,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="E118">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F118">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K118">
         <v>0.2333333333333333</v>
@@ -8937,25 +8937,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>318</v>
@@ -8987,25 +8987,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F120">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>319</v>
@@ -9093,13 +9093,13 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E122">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F122">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -9193,16 +9193,16 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>14</v>
@@ -9237,25 +9237,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>324</v>
@@ -9287,7 +9287,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9305,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K126">
         <v>0.2288135593220339</v>
@@ -9337,28 +9337,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E127">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="F127">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K127">
         <v>0.228125</v>
@@ -9443,16 +9443,16 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>15</v>
@@ -9487,25 +9487,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0625</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>327</v>
@@ -9537,13 +9537,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9555,10 +9555,10 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K131">
         <v>0.2236842105263158</v>
@@ -9587,25 +9587,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05982905982905983</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>328</v>
@@ -9637,13 +9637,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05555555555555555</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>329</v>
@@ -9687,13 +9687,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>330</v>
@@ -9737,13 +9737,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05369127516778523</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>331</v>
@@ -9790,10 +9790,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>332</v>
@@ -9843,22 +9843,22 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K137">
         <v>0.2142857142857143</v>
@@ -9893,16 +9893,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>18</v>
@@ -9943,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>18</v>
@@ -9987,25 +9987,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>335</v>
@@ -10037,7 +10037,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10055,10 +10055,10 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K141">
         <v>0.2137800849457291</v>
@@ -10090,25 +10090,25 @@
         <v>0.05</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K142">
         <v>0.2096774193548387</v>
@@ -10137,28 +10137,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K143">
         <v>0.2083333333333333</v>
@@ -10187,25 +10187,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="C144">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="E144">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F144">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>336</v>
@@ -10237,25 +10237,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="E145">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>337</v>
@@ -10287,25 +10287,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04838709677419355</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E146">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F146">
-        <v>0.15</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>338</v>
@@ -10340,22 +10340,22 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>339</v>
@@ -10387,28 +10387,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04761904761904762</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
       <c r="D148">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E148">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="F148">
-        <v>0.05000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K148">
         <v>0.2</v>
@@ -10437,25 +10437,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F149">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>340</v>
@@ -10487,25 +10487,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04705882352941176</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E150">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.13</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>341</v>
@@ -10537,7 +10537,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>342</v>
@@ -10587,25 +10587,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>343</v>
@@ -10643,13 +10643,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F153">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -10658,7 +10658,7 @@
         <v>23</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K153">
         <v>0.2</v>
@@ -10687,25 +10687,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>344</v>
@@ -10737,25 +10737,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>345</v>
@@ -10787,25 +10787,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04081632653061224</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>346</v>
@@ -10837,25 +10837,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>347</v>
@@ -10890,22 +10890,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>348</v>
@@ -10943,13 +10943,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -10990,22 +10990,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>350</v>
@@ -11037,25 +11037,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>351</v>
@@ -11087,25 +11087,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>352</v>
@@ -11143,16 +11143,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>27</v>
@@ -11187,25 +11187,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>77</v>
@@ -11237,28 +11237,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E165">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F165">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K165">
         <v>0.1981981981981982</v>
@@ -11287,28 +11287,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03508771929824561</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K166">
         <v>0.1962616822429906</v>
@@ -11337,25 +11337,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>353</v>
@@ -11387,25 +11387,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03409090909090909</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
         <v>3</v>
       </c>
-      <c r="D168">
-        <v>46</v>
-      </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>354</v>
@@ -11443,22 +11443,22 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>30</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K169">
         <v>0.1935483870967742</v>
@@ -11487,28 +11487,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K170">
         <v>0.1925925925925926</v>
@@ -11537,25 +11537,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>355</v>
@@ -11587,25 +11587,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>356</v>
@@ -11637,25 +11637,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02941176470588235</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>357</v>
@@ -11687,25 +11687,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E174">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>358</v>
@@ -11737,28 +11737,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02912621359223301</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F175">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K175">
         <v>0.1896551724137931</v>
@@ -11787,25 +11787,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C176">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>359</v>
@@ -11837,28 +11837,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02857142857142857</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F177">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K177">
         <v>0.1875</v>
@@ -11887,25 +11887,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>360</v>
@@ -11937,25 +11937,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02755905511811024</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="C179">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>361</v>
@@ -11987,25 +11987,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>362</v>
@@ -12037,13 +12037,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02678571428571428</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D181">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E181">
         <v>0.9</v>
@@ -12055,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>363</v>
@@ -12087,25 +12087,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F182">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>364</v>
@@ -12137,25 +12137,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02590673575129534</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>365</v>
@@ -12193,13 +12193,13 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E184">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F184">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
@@ -12237,25 +12237,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>367</v>
@@ -12287,28 +12287,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K186">
         <v>0.1818181818181818</v>
@@ -12337,25 +12337,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>0.1899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>368</v>
@@ -12387,25 +12387,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>369</v>
@@ -12437,25 +12437,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>370</v>
@@ -12487,25 +12487,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E190">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F190">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>371</v>
@@ -12537,13 +12537,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E191">
         <v>0.96</v>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>372</v>
@@ -12587,28 +12587,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E192">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K192">
         <v>0.1811320754716981</v>
@@ -12637,25 +12637,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>373</v>
@@ -12687,25 +12687,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>374</v>
@@ -12737,25 +12737,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02083333333333333</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>6</v>
       </c>
       <c r="E195">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>375</v>
@@ -12787,28 +12787,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E196">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K196">
         <v>0.1764705882352941</v>
@@ -12837,25 +12837,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02061855670103093</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>376</v>
@@ -12887,25 +12887,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>377</v>
@@ -12937,25 +12937,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0196078431372549</v>
+        <v>0.01938610662358643</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>287</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>50</v>
+        <v>607</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>378</v>
@@ -12987,25 +12987,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01941747572815534</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F200">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>379</v>
@@ -13037,25 +13037,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01938610662358643</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>607</v>
+        <v>54</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>380</v>
@@ -13087,25 +13087,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>381</v>
@@ -13137,25 +13137,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01818181818181818</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>382</v>
@@ -13187,25 +13187,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>383</v>
@@ -13237,25 +13237,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01739130434782609</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>384</v>
@@ -13287,25 +13287,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01724137931034483</v>
+        <v>0.0164424514200299</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D206">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="E206">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>385</v>
@@ -13337,25 +13337,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>386</v>
@@ -13387,28 +13387,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0164424514200299</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C208">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>658</v>
+        <v>60</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K208">
         <v>0.1666666666666667</v>
@@ -13437,25 +13437,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01639344262295082</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>387</v>
@@ -13487,25 +13487,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01639344262295082</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>388</v>
@@ -13537,25 +13537,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01515151515151515</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="E211">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F211">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>389</v>
@@ -13587,25 +13587,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01515151515151515</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D212">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="E212">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F212">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>65</v>
+        <v>406</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>390</v>
@@ -13637,25 +13637,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01463414634146342</v>
+        <v>0.01420118343195266</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D213">
-        <v>106</v>
+        <v>477</v>
       </c>
       <c r="E213">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>202</v>
+        <v>1666</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>391</v>
@@ -13687,13 +13687,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01456310679611651</v>
+        <v>0.01401273885350319</v>
       </c>
       <c r="C214">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D214">
-        <v>161</v>
+        <v>785</v>
       </c>
       <c r="E214">
         <v>0.96</v>
@@ -13705,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>406</v>
+        <v>2322</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>392</v>
@@ -13737,25 +13737,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01420118343195266</v>
+        <v>0.01396160558464223</v>
       </c>
       <c r="C215">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D215">
-        <v>477</v>
+        <v>85</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>1666</v>
+        <v>565</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>393</v>
@@ -13787,25 +13787,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01401273885350319</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C216">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>785</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>2322</v>
+        <v>73</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>394</v>
@@ -13837,25 +13837,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01396160558464223</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C217">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E217">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>565</v>
+        <v>73</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>395</v>
@@ -13890,22 +13890,22 @@
         <v>0.01351351351351351</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>396</v>
@@ -13937,25 +13937,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01351351351351351</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>397</v>
@@ -13987,25 +13987,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01351351351351351</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E220">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F220">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>398</v>
@@ -14037,25 +14037,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01265822784810127</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>399</v>
@@ -14087,25 +14087,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E222">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>400</v>
@@ -14137,25 +14137,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01123595505617977</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>401</v>
@@ -14187,13 +14187,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01111111111111111</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E224">
         <v>0.96</v>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>402</v>
@@ -14237,25 +14237,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01098901098901099</v>
+        <v>0.01</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>403</v>
@@ -14287,25 +14287,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0108695652173913</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E226">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F226">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>404</v>
@@ -14337,25 +14337,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E227">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F227">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>405</v>
@@ -14387,28 +14387,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.009259259259259259</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E228">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F228">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K228">
         <v>0.1640625</v>
@@ -14437,25 +14437,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0091324200913242</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>406</v>
@@ -14487,28 +14487,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.008928571428571428</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E230">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K230">
         <v>0.162962962962963</v>
@@ -14537,25 +14537,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.008849557522123894</v>
+        <v>0.008207934336525308</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>112</v>
+        <v>725</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>407</v>
@@ -14587,13 +14587,13 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.008695652173913044</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E232">
         <v>0.93</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>408</v>
@@ -14637,25 +14637,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.008207934336525308</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="C233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>725</v>
+        <v>370</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>409</v>
@@ -14687,25 +14687,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.008064516129032258</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E234">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F234">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>410</v>
@@ -14737,25 +14737,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.008042895442359249</v>
+        <v>0.006920415224913495</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>411</v>
@@ -14787,7 +14787,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.007042253521126761</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>412</v>
@@ -14837,28 +14837,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.006920415224913495</v>
+        <v>0.00625</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="E237">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F237">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>287</v>
+        <v>159</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K237">
         <v>0.1579558652729385</v>
@@ -14887,13 +14887,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.006666666666666667</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E238">
         <v>0.96</v>
@@ -14905,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>413</v>
@@ -14937,28 +14937,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.00625</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K239">
         <v>0.1558441558441558</v>
@@ -14987,25 +14987,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.006172839506172839</v>
+        <v>0.004175365344467641</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D240">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E240">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="F240">
-        <v>0.04000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>161</v>
+        <v>954</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>414</v>
@@ -15037,7 +15037,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.006024096385542169</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>415</v>
@@ -15087,25 +15087,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.004175365344467641</v>
+        <v>0.002840909090909091</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="F242">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>954</v>
+        <v>351</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>416</v>
@@ -15137,25 +15137,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.003968253968253968</v>
+        <v>0.002672903441363181</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>251</v>
+        <v>2985</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>417</v>
@@ -15187,25 +15187,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002840909090909091</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E244">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F244">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>351</v>
+        <v>531</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>418</v>
@@ -15237,25 +15237,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002672903441363181</v>
+        <v>0.0009074410163339383</v>
       </c>
       <c r="C245">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="E245">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F245">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>2985</v>
+        <v>1101</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>419</v>
@@ -15283,30 +15283,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.001879699248120301</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>14</v>
-      </c>
-      <c r="E246">
-        <v>0.93</v>
-      </c>
-      <c r="F246">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>531</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>420</v>
       </c>
@@ -15333,30 +15309,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.0009074410163339383</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>60</v>
-      </c>
-      <c r="E247">
-        <v>0.98</v>
-      </c>
-      <c r="F247">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>1101</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>421</v>
       </c>
@@ -15384,7 +15336,7 @@
     </row>
     <row r="248" spans="1:17">
       <c r="J248" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K248">
         <v>0.1463414634146341</v>
@@ -16242,7 +16194,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K281">
         <v>0.1401869158878505</v>
@@ -16424,7 +16376,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K288">
         <v>0.1349693251533742</v>
@@ -16476,7 +16428,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K290">
         <v>0.1333333333333333</v>
@@ -16502,7 +16454,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K291">
         <v>0.1333333333333333</v>
@@ -16658,7 +16610,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K297">
         <v>0.1333333333333333</v>
@@ -16736,7 +16688,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K300">
         <v>0.131578947368421</v>
@@ -16814,7 +16766,7 @@
     </row>
     <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K303">
         <v>0.1296296296296296</v>
@@ -16866,7 +16818,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K305">
         <v>0.1286549707602339</v>
@@ -16944,7 +16896,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K308">
         <v>0.1276595744680851</v>
@@ -16970,7 +16922,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K309">
         <v>0.125</v>
@@ -18088,7 +18040,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K352">
         <v>0.1199376947040498</v>
@@ -18426,7 +18378,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K365">
         <v>0.1136363636363636</v>
@@ -18842,7 +18794,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K381">
         <v>0.1111111111111111</v>
@@ -19050,7 +19002,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K389">
         <v>0.1111111111111111</v>
@@ -19128,7 +19080,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K392">
         <v>0.1071428571428571</v>
@@ -19258,7 +19210,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K397">
         <v>0.1052631578947368</v>
@@ -19414,7 +19366,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K403">
         <v>0.1023622047244094</v>
@@ -19440,7 +19392,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K404">
         <v>0.1021897810218978</v>
@@ -19622,7 +19574,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K411">
         <v>0.1</v>
@@ -20246,7 +20198,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K435">
         <v>0.09876543209876543</v>
@@ -20350,7 +20302,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K439">
         <v>0.09615384615384616</v>
@@ -21286,7 +21238,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K475">
         <v>0.08695652173913043</v>
@@ -21936,7 +21888,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K500">
         <v>0.08064516129032258</v>
@@ -22040,7 +21992,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K504">
         <v>0.08</v>
@@ -22196,7 +22148,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K510">
         <v>0.07692307692307693</v>
@@ -22586,7 +22538,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K525">
         <v>0.075</v>
@@ -22612,7 +22564,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K526">
         <v>0.07476635514018691</v>
@@ -22664,7 +22616,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K528">
         <v>0.07407407407407407</v>
@@ -22898,7 +22850,7 @@
     </row>
     <row r="537" spans="10:17">
       <c r="J537" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K537">
         <v>0.07142857142857142</v>
@@ -23314,7 +23266,7 @@
     </row>
     <row r="553" spans="10:17">
       <c r="J553" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K553">
         <v>0.06818181818181818</v>
@@ -23756,7 +23708,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K570">
         <v>0.06514249921703727</v>
@@ -23834,7 +23786,7 @@
     </row>
     <row r="573" spans="10:17">
       <c r="J573" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K573">
         <v>0.0625</v>
@@ -24120,7 +24072,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K584">
         <v>0.06</v>
@@ -24302,7 +24254,7 @@
     </row>
     <row r="591" spans="10:17">
       <c r="J591" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K591">
         <v>0.05797101449275362</v>
@@ -24328,7 +24280,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K592">
         <v>0.05714285714285714</v>
@@ -24640,7 +24592,7 @@
     </row>
     <row r="604" spans="10:17">
       <c r="J604" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K604">
         <v>0.05454545454545454</v>
@@ -25134,7 +25086,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K623">
         <v>0.05086206896551724</v>
@@ -26070,7 +26022,7 @@
     </row>
     <row r="659" spans="10:17">
       <c r="J659" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K659">
         <v>0.0425531914893617</v>
@@ -26356,7 +26308,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K670">
         <v>0.04040404040404041</v>
@@ -26616,7 +26568,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K680">
         <v>0.03703703703703703</v>
@@ -26642,7 +26594,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K681">
         <v>0.03703703703703703</v>
@@ -26772,7 +26724,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K686">
         <v>0.03636363636363636</v>
@@ -26824,7 +26776,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K688">
         <v>0.03571428571428571</v>
@@ -27084,7 +27036,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K698">
         <v>0.03296703296703297</v>
@@ -27370,7 +27322,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K709">
         <v>0.0303030303030303</v>
@@ -27760,7 +27712,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K724">
         <v>0.02666666666666667</v>
@@ -27916,7 +27868,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K730">
         <v>0.02564102564102564</v>
@@ -28046,7 +27998,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K735">
         <v>0.02389705882352941</v>
@@ -28202,7 +28154,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K741">
         <v>0.02228412256267409</v>
@@ -28332,7 +28284,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K746">
         <v>0.02083333333333333</v>
@@ -28384,7 +28336,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K748">
         <v>0.01754385964912281</v>
@@ -28930,7 +28882,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K769">
         <v>0.01037344398340249</v>
